--- a/data/trans_bre/P27_N_R5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27_N_R5-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>102,72%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>132,91%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>193,15%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>120,99%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>5.383959959732419</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.230902897686573</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.176556562635942</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.479440600697022</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.448029441095346</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.357640178853887</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.88323069618323</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.042068271522116</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 10,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 5,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 10,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 9,52</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-45,18; 709,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-32,14; 797,88</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>23,7; 590,65</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-37,16; 647,24</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6675224866487697</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4486371964998924</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.104600011607991</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.198002164767437</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.3469122788765664</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.296557465646586</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1059885959383385</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4320142195871853</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.16673965982628</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.899294701015547</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.950677032150304</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.980756060378967</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>8.580282297255414</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>8.156536238857381</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.716014250447193</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6.361753165204877</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>101,47%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>104,19%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>293,21%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>180,95%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 3,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,39; 2,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 6,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 2,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-50,32; 755,52</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-37,69; 748,98</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>64,03; 810,4</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-81,8; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.258459688497752</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8916984213176922</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.275677500084061</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.096592520850026</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.263556772962684</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.125960963378927</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.958848894841264</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.91005759886596</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>71,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>198,51%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>272,95%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>60,48%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3595309090489959</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3077841268162146</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.438413231619396</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2752288837415118</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4177622984072628</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.378955287350294</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.6706385141520456</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.8642762169893352</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 2,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 2,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 2,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-75,66; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-12,26; 1453,32</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-82,54; 887,47</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.309938661882302</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.317967110126657</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.247414380719333</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.080664921368745</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>9.116955028384018</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>7.546370738058614</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>8.017978188070538</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +881,228 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>83,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>152,37%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>127,84%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.4930587014065906</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.7625167634849668</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.364753124215806</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6006067024467374</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.6662015732704568</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.857210471450381</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.927793677882109</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.7226470299553019</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 3,71</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 4,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 4,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-21,81; 347,24</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-42,61; 1069,72</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-91,81; 1929,33</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.155766383554421</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2365662212804572</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4047239798209263</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.9357787413131847</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.749443926024538</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.05340202418827567</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8060195140021162</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.04191751733274</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.090508144479466</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.580337206732411</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.246439249671856</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>15.69862118514586</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>10.23515639863438</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>94,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>137,24%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>254,02%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>143,66%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,8</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 2,15</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 5,26</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 2,97</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>12,61; 242,64</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>24,24; 349,22</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>100,25; 498,78</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>22,79; 481,79</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.853578743600575</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.174520511656346</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.480453803758675</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.685773582653607</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>1.374501864599161</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.396079848168961</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.549553328988151</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.418653520877901</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4390794548454734</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3335711392906451</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.199057834759418</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3935339808170684</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.1469156128460014</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1477310584766646</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.9173317483390647</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1161341982477106</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.75734017685069</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.096295577261582</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.075781263943805</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.358193148880076</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>4.556160258250862</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.777529651244157</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>4.986551281865631</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>4.152420629814401</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
